--- a/src/multi_agent_graph/utils/analysis_documents/thrombosis_7.xlsx
+++ b/src/multi_agent_graph/utils/analysis_documents/thrombosis_7.xlsx
@@ -85,76 +85,76 @@
     <t>C-reactive Protein</t>
   </si>
   <si>
-    <t>0.18238625524099628</t>
-  </si>
-  <si>
-    <t>0.3451106144558571</t>
-  </si>
-  <si>
-    <t>0.20064957863565702</t>
-  </si>
-  <si>
-    <t>0.1500780744849537</t>
-  </si>
-  <si>
-    <t>0.5264111183811601</t>
-  </si>
-  <si>
-    <t>0.6170948213320244</t>
-  </si>
-  <si>
-    <t>0.9822233593624654</t>
-  </si>
-  <si>
-    <t>0.6744737877325626</t>
-  </si>
-  <si>
-    <t>0.27783763517585935</t>
-  </si>
-  <si>
-    <t>0.3264750236834182</t>
-  </si>
-  <si>
-    <t>0.5918064292622119</t>
-  </si>
-  <si>
-    <t>0.28857285656364384</t>
-  </si>
-  <si>
-    <t>0.6661645699363152</t>
-  </si>
-  <si>
-    <t>0.3467725920557605</t>
-  </si>
-  <si>
-    <t>0.9367216725904608</t>
-  </si>
-  <si>
-    <t>0.2723482273948816</t>
-  </si>
-  <si>
-    <t>0.046179294065744836</t>
-  </si>
-  <si>
-    <t>0.3900401870314685</t>
-  </si>
-  <si>
-    <t>0.23738767555267726</t>
-  </si>
-  <si>
-    <t>0.45201811365023026</t>
-  </si>
-  <si>
-    <t>0.12364485291530891</t>
-  </si>
-  <si>
-    <t>0.913047062518968</t>
-  </si>
-  <si>
-    <t>0.6216229483658062</t>
-  </si>
-  <si>
-    <t>0.20602080417016838</t>
+    <t>0.3537344210665569</t>
+  </si>
+  <si>
+    <t>0.7577568401935213</t>
+  </si>
+  <si>
+    <t>0.7550065199266185</t>
+  </si>
+  <si>
+    <t>0.0125937870016239</t>
+  </si>
+  <si>
+    <t>0.22768449724296</t>
+  </si>
+  <si>
+    <t>0.4251174575612126</t>
+  </si>
+  <si>
+    <t>0.3874606942592784</t>
+  </si>
+  <si>
+    <t>0.4614176405695449</t>
+  </si>
+  <si>
+    <t>0.3055879644176213</t>
+  </si>
+  <si>
+    <t>0.7411196983105182</t>
+  </si>
+  <si>
+    <t>0.6544406230248903</t>
+  </si>
+  <si>
+    <t>0.4039202600015903</t>
+  </si>
+  <si>
+    <t>0.1437127057520379</t>
+  </si>
+  <si>
+    <t>0.2128586427292584</t>
+  </si>
+  <si>
+    <t>0.3932629422405935</t>
+  </si>
+  <si>
+    <t>0.446853543552876</t>
+  </si>
+  <si>
+    <t>0.7293764509684526</t>
+  </si>
+  <si>
+    <t>0.6155430770063064</t>
+  </si>
+  <si>
+    <t>0.7947349078832191</t>
+  </si>
+  <si>
+    <t>0.2338898094447334</t>
+  </si>
+  <si>
+    <t>0.6121877959345874</t>
+  </si>
+  <si>
+    <t>0.4078905009560289</t>
+  </si>
+  <si>
+    <t>0.4268626017055326</t>
+  </si>
+  <si>
+    <t>0.532099796944172</t>
   </si>
 </sst>
 </file>
@@ -418,28 +418,20 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="18.13"/>
-    <col customWidth="1" min="2" max="2" width="17.13"/>
-    <col customWidth="1" min="3" max="3" width="18.13"/>
-    <col customWidth="1" min="4" max="4" width="17.25"/>
-    <col customWidth="1" min="5" max="5" width="16.75"/>
-    <col customWidth="1" min="6" max="7" width="17.25"/>
+    <col customWidth="1" min="1" max="4" width="17.25"/>
+    <col customWidth="1" min="5" max="5" width="15.38"/>
+    <col customWidth="1" min="6" max="6" width="17.13"/>
+    <col customWidth="1" min="7" max="7" width="17.25"/>
     <col customWidth="1" min="8" max="8" width="20.63"/>
     <col customWidth="1" min="9" max="9" width="24.0"/>
     <col customWidth="1" min="10" max="10" width="34.75"/>
-    <col customWidth="1" min="11" max="11" width="17.13"/>
-    <col customWidth="1" min="12" max="12" width="18.13"/>
+    <col customWidth="1" min="11" max="12" width="17.25"/>
     <col customWidth="1" min="13" max="13" width="18.63"/>
     <col customWidth="1" min="14" max="14" width="19.13"/>
-    <col customWidth="1" min="15" max="16" width="17.25"/>
-    <col customWidth="1" min="17" max="17" width="19.13"/>
-    <col customWidth="1" min="18" max="18" width="17.25"/>
-    <col customWidth="1" min="19" max="19" width="18.13"/>
-    <col customWidth="1" min="20" max="20" width="18.0"/>
-    <col customWidth="1" min="21" max="21" width="18.13"/>
-    <col customWidth="1" min="22" max="22" width="16.25"/>
-    <col customWidth="1" min="23" max="23" width="17.25"/>
-    <col customWidth="1" min="24" max="24" width="18.13"/>
+    <col customWidth="1" min="15" max="15" width="17.25"/>
+    <col customWidth="1" min="16" max="16" width="16.25"/>
+    <col customWidth="1" min="17" max="23" width="17.25"/>
+    <col customWidth="1" min="24" max="24" width="16.25"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -515,8 +507,6 @@
       <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
